--- a/Assets/Editor/PotionCrafting.xlsx
+++ b/Assets/Editor/PotionCrafting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregdoug\Local Documents\Unity Projects\PipelineExercise\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomtare\Desktop\Exercise\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D08E4-15D4-4A48-8B2D-FF7234C4AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA76CCC7-5686-4A6F-97BC-68E48099124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26300" yWindow="-22020" windowWidth="38620" windowHeight="21820" xr2:uid="{BF5A99BE-0962-40A7-B624-F4241E3A742A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BF5A99BE-0962-40A7-B624-F4241E3A742A}"/>
   </bookViews>
   <sheets>
     <sheet name="Potion Crafting" sheetId="1" r:id="rId1"/>
@@ -754,6 +754,316 @@
   <dxfs count="102">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -831,319 +1141,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1548,6 +1545,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1943,6 +1943,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1950,7 +1951,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2100,7 +2100,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2128,12 +2128,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{068CA984-9A25-4B91-B0A1-6AF086458DDB}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{B7A0671A-A1F5-4435-9D9F-BD5DE2E3591E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2296,7 +2296,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2324,12 +2324,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0E49F0B-A9FB-43A3-B0D8-E082D5F35190}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{7DA964A7-B24E-4867-92E1-9EBE69254F66}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2492,7 +2492,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2520,12 +2520,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0EBC13D-9E08-4EF7-9339-E29FE470A242}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{158DBEAB-ADAA-492C-BB3E-20F78D95FAA3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2702,7 +2702,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2730,12 +2730,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F72F9E09-2C0B-4D47-AE81-B7DA7B50769A}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{7AAB4746-4CA7-465F-A9D4-D6C53B5F5B8B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2898,7 +2898,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2926,12 +2926,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9FB44D6-C715-4D66-8959-BA065765C67A}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{11A839F1-9481-4F63-B042-748F8CFBD20E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3219,6 +3219,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3226,7 +3227,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4459,10 +4459,10 @@
       <calculatedColumnFormula>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{F70F9771-BA82-48E7-A0B4-2E7FD8BD939A}" name="Cost Grade" totalsRowFunction="average" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="3">
+    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="93">
       <calculatedColumnFormula array="1">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="93">
+    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="92">
       <calculatedColumnFormula>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4471,30 +4471,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="J4:Q17" totalsRowCount="1" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="J4:Q17" totalsRowCount="1" headerRowDxfId="91">
   <autoFilter ref="J4:Q16" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:Q16">
     <sortCondition ref="L4:L16"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="86">
       <calculatedColumnFormula>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="86">
+    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="85">
       <calculatedColumnFormula>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="85">
+    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="84">
       <calculatedColumnFormula>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="84">
+    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="83">
       <calculatedColumnFormula>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula array="1">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="81" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="80" dataCellStyle="Percent">
       <calculatedColumnFormula>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4503,67 +4503,67 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="T4:AO23" totalsRowCount="1" headerRowDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="T4:AO23" totalsRowCount="1" headerRowDxfId="79">
   <autoFilter ref="T4:AO22" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="67">
+    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="66">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="62">
+    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="61">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="61">
+    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="60">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="60">
+    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="59">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="59">
+    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="58">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="58">
+    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="57">
       <calculatedColumnFormula xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="57">
+    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="56">
       <calculatedColumnFormula array="1">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="56">
+    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="55">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="55">
+    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="54">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="54">
+    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="53">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="53">
+    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="52">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="52">
+    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="51">
       <calculatedColumnFormula>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="51">
+    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="50">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="49">
       <calculatedColumnFormula array="1">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4572,7 +4572,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="48">
   <autoFilter ref="B4:J9" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4586,22 +4586,22 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A07BBC-E4A1-48D1-BD0B-E020F49EB5F9}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="46">
+    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="45">
       <calculatedColumnFormula>Rarities[[#This Row],[Most Expensive]]-Rarities[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="44">
+    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="43">
       <calculatedColumnFormula>COUNTIF(Ingredients[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="42">
       <calculatedColumnFormula>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="41" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="40" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4610,9 +4610,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4650,7 +4650,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4756,7 +4756,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4898,7 +4898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4909,66 +4909,66 @@
   <dimension ref="B1:AP34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="8.41796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="8.83984375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7890625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="3.578125" customWidth="1"/>
-    <col min="9" max="9" width="3.41796875" customWidth="1"/>
-    <col min="10" max="10" width="18.68359375" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.83984375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.83984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9.41796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.41796875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.83984375" customWidth="1"/>
-    <col min="18" max="18" width="3.734375" customWidth="1"/>
-    <col min="19" max="19" width="3.83984375" customWidth="1"/>
-    <col min="20" max="20" width="15.83984375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
     <col min="21" max="21" width="4" customWidth="1"/>
     <col min="22" max="22" width="15" style="7" customWidth="1"/>
     <col min="23" max="24" width="15" customWidth="1"/>
     <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="9.41796875" customWidth="1"/>
-    <col min="27" max="28" width="12.15625" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" customWidth="1"/>
+    <col min="27" max="28" width="12.140625" customWidth="1"/>
     <col min="29" max="29" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="9.05078125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="34" width="9.9453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="7.26171875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="37" width="7.41796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="35.20703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="6.26171875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="8.47265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.47265625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="15.83984375" customWidth="1"/>
-    <col min="43" max="43" width="15.41796875" customWidth="1"/>
-    <col min="44" max="44" width="13.26171875" customWidth="1"/>
+    <col min="30" max="32" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="34" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="7.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="37" width="7.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="35.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="6.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="15.85546875" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:41" x14ac:dyDescent="0.25">
       <c r="U1" s="7"/>
       <c r="V1"/>
       <c r="AI1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.25">
       <c r="U2" s="7"/>
       <c r="V2"/>
       <c r="AI2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:41" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:41" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>47</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>55</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>61</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <f>SUBTOTAL(103,Ingredients[Name])</f>
         <v>16</v>
@@ -7329,7 +7329,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>Unique</v>
       </c>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
       <c r="T23" s="26">
         <f>SUBTOTAL(103,Recipes[Potion])</f>
         <v>18</v>
@@ -7445,20 +7445,20 @@
         <v>0.30070463167818989</v>
       </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
       <c r="T24" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
       <c r="T25" s="5"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>90</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:42" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:42" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>58</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="AO29"/>
       <c r="AP29"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>59</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="Q30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>60</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>73</v>
       </c>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="AP33" s="3"/>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>72</v>
       </c>
@@ -7585,19 +7585,19 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B5:D20">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>$D5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$D5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>$D5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>$D5=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>$D5=4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7644,29 +7644,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G20">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L16">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>$L5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>$L5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$L5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>$L5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>$L5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M16">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
     <cfRule type="dataBar" priority="44">
@@ -7697,7 +7697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O16">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>O5&gt;P5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7716,54 +7716,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T22">
-    <cfRule type="expression" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>INDEX(PotionRarity, AC5)="Common"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>INDEX(PotionRarity, AC5)="Uncommon"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>INDEX(PotionRarity, AC5)="Rare"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule type="expression" dxfId="23" priority="14">
       <formula>INDEX(PotionRarity, AC5)="Epic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>INDEX(PotionRarity, AC5)="Legendary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:X5">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:X22">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>INDEX(IngredientRarity,AD5)="Common"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>INDEX(IngredientRarity,AD5)="Uncommon"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>INDEX(IngredientRarity,AD5)="Rare"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>INDEX(IngredientRarity,AD5)="Legendary"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>INDEX(IngredientRarity,AD5)="Epic"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:W22">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>W5=V5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:X22">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(X5&lt;&gt;"", OR(X5=W5, X5=V5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y22">
-    <cfRule type="cellIs" dxfId="17" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="225" operator="lessThan">
       <formula>2</formula>
     </cfRule>
     <cfRule type="dataBar" priority="226">
@@ -7780,16 +7780,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z22">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Excessive"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Equal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Elevated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Under"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7822,13 +7822,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO22">
-    <cfRule type="expression" dxfId="12" priority="53">
+    <cfRule type="expression" dxfId="8" priority="53">
       <formula>$AN5&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="54" operator="equal">
       <formula>"Blank"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="55" operator="equal">
       <formula>"Unique"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7966,23 +7966,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD12B542-DBA2-49EA-8647-F48D51F4F7FC}">
   <dimension ref="B3:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.41796875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.41796875" customWidth="1"/>
-    <col min="11" max="11" width="12.9453125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -8202,12 +8202,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>87</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>74</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>75</v>
       </c>
@@ -8236,19 +8236,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Legendary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Epic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Rare"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Uncommon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8267,7 +8267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D9">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>D5&lt;C5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/Editor/PotionCrafting.xlsx
+++ b/Assets/Editor/PotionCrafting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomtare\Desktop\Exercise\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA76CCC7-5686-4A6F-97BC-68E48099124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655A2D69-96C8-4F13-A260-38AD7636BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BF5A99BE-0962-40A7-B624-F4241E3A742A}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>Frog's Breath</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Make canonical ordering to check for duplicates</t>
+  </si>
+  <si>
+    <t>Testo</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -746,12 +749,53 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="102">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -823,11 +867,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -843,11 +887,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -889,14 +933,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF7030A0"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -910,14 +954,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -934,7 +978,21 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -948,21 +1006,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -986,7 +1030,21 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -1000,21 +1058,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -1031,14 +1075,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF7030A0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -1052,14 +1096,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -1547,20 +1591,29 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1582,55 +1635,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2095,7 +2099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF3BAED2-EF27-45AA-9191-81EAF4F897C6}" type="CELLRANGE">
+                    <a:fld id="{A2079A98-2E05-409D-954F-F5C75B2D7A27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2128,7 +2132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7A0671A-A1F5-4435-9D9F-BD5DE2E3591E}" type="CELLRANGE">
+                    <a:fld id="{F64EFA63-6EB9-423E-8FC7-3FDD7750520F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2246,7 +2250,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>44%</c:v>
+                    <c:v>41%</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>33%</c:v>
@@ -2291,7 +2295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB633F84-97E3-4DD2-B0E8-FE4A0168934E}" type="CELLRANGE">
+                    <a:fld id="{3FA64EBE-2F6E-4F76-BBBF-1CE14FA11C72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2324,7 +2328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DA964A7-B24E-4867-92E1-9EBE69254F66}" type="CELLRANGE">
+                    <a:fld id="{999C4EE2-15ED-4197-BF7F-4FB53C8B1D2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2442,7 +2446,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>19%</c:v>
+                    <c:v>18%</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>33%</c:v>
@@ -2487,7 +2491,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D11EF50-ED31-4384-B660-A5590C2CC0F7}" type="CELLRANGE">
+                    <a:fld id="{D030787F-7BFB-460D-BB3F-9A238D554BA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2520,7 +2524,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{158DBEAB-ADAA-492C-BB3E-20F78D95FAA3}" type="CELLRANGE">
+                    <a:fld id="{FA7F74C4-3FFD-4DD7-A3E6-87941BE45398}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2652,7 +2656,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>19%</c:v>
+                    <c:v>18%</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>25%</c:v>
@@ -2697,7 +2701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2CAF1B9-7CA3-4302-8281-2534688A15CF}" type="CELLRANGE">
+                    <a:fld id="{7B30F1B2-85B4-4CA8-A3A0-EBDFE032CF6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2730,7 +2734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AAB4746-4CA7-465F-A9D4-D6C53B5F5B8B}" type="CELLRANGE">
+                    <a:fld id="{5CAC71D0-16E5-4644-8657-41635F4348CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2848,7 +2852,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>13%</c:v>
+                    <c:v>12%</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8%</c:v>
@@ -2893,7 +2897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AD93C4E-647F-47D0-A4EC-13B0BDC7B2A5}" type="CELLRANGE">
+                    <a:fld id="{A65D1FC0-4427-4082-B274-22292D0C040A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2926,7 +2930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11A839F1-9481-4F63-B042-748F8CFBD20E}" type="CELLRANGE">
+                    <a:fld id="{48E2EAC3-BED5-486A-A576-2C6E5C4EBFC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3029,7 +3033,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3044,7 +3048,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>6%</c:v>
+                    <c:v>12%</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0%</c:v>
@@ -4447,22 +4451,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}" name="Ingredients" displayName="Ingredients" ref="B4:G21" totalsRowCount="1" headerRowDxfId="101">
-  <autoFilter ref="B4:G20" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G20">
-    <sortCondition ref="F4:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}" name="Ingredients" displayName="Ingredients" ref="B4:G22" totalsRowCount="1" headerRowDxfId="101">
+  <autoFilter ref="B4:G21" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G21">
+    <sortCondition ref="F4:F21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D69EB11C-10F0-4524-8369-AD97563981B3}" name="Name" totalsRowFunction="count" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{F04C1EA5-949E-438D-84A4-56F605CD6069}" name="Rarity" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{32B1FDAB-5698-4E97-B9E0-92BB3CB850BE}" name="Rarity Index" dataDxfId="96">
+    <tableColumn id="1" xr3:uid="{D69EB11C-10F0-4524-8369-AD97563981B3}" name="Name" totalsRowFunction="count" dataDxfId="100" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F04C1EA5-949E-438D-84A4-56F605CD6069}" name="Rarity" dataDxfId="99" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{32B1FDAB-5698-4E97-B9E0-92BB3CB850BE}" name="Rarity Index" dataDxfId="98">
       <calculatedColumnFormula>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F70F9771-BA82-48E7-A0B4-2E7FD8BD939A}" name="Cost Grade" totalsRowFunction="average" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="93">
+    <tableColumn id="5" xr3:uid="{F70F9771-BA82-48E7-A0B4-2E7FD8BD939A}" name="Cost Grade" totalsRowFunction="average" dataDxfId="97" totalsRowDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="0">
       <calculatedColumnFormula array="1">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="92">
+    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="96">
       <calculatedColumnFormula>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4471,30 +4475,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="J4:Q17" totalsRowCount="1" headerRowDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="J4:Q17" totalsRowCount="1" headerRowDxfId="95">
   <autoFilter ref="J4:Q16" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:Q16">
     <sortCondition ref="L4:L16"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="90">
       <calculatedColumnFormula>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="85">
+    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="89">
       <calculatedColumnFormula>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="84">
+    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="88">
       <calculatedColumnFormula>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="83">
+    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="87">
       <calculatedColumnFormula>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula array="1">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="80" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="84" dataCellStyle="Percent">
       <calculatedColumnFormula>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4503,67 +4507,67 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="T4:AO23" totalsRowCount="1" headerRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="T4:AO23" totalsRowCount="1" headerRowDxfId="83">
   <autoFilter ref="T4:AO22" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="66">
+    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="70">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="61">
+    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="65">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="60">
+    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="64">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="59">
+    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="63">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="58">
+    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="62">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="57">
+    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="61">
       <calculatedColumnFormula xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="56">
+    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="60">
       <calculatedColumnFormula array="1">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="55">
+    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="59">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="54">
+    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="58">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="53">
+    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="57">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="52">
+    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="56">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="51">
+    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="55">
       <calculatedColumnFormula>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="54">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="53">
       <calculatedColumnFormula array="1">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4572,7 +4576,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="52">
   <autoFilter ref="B4:J9" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4586,22 +4590,22 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A07BBC-E4A1-48D1-BD0B-E020F49EB5F9}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="45">
+    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="49">
       <calculatedColumnFormula>Rarities[[#This Row],[Most Expensive]]-Rarities[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="43">
+    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="47">
       <calculatedColumnFormula>COUNTIF(Ingredients[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="42">
+    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="46">
       <calculatedColumnFormula>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="41" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="45" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="40" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="44" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4906,10 +4910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260103A1-078B-47F4-B698-AE1FC36BEB09}">
-  <dimension ref="B1:AP34"/>
+  <dimension ref="B1:AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7117,23 +7121,23 @@
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="39">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>5</v>
       </c>
       <c r="E20" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
-        <v>545</v>
-      </c>
-      <c r="G20">
+        <v>415</v>
+      </c>
+      <c r="G20" s="39">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>0</v>
       </c>
@@ -7225,22 +7229,26 @@
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
-        <f>SUBTOTAL(103,Ingredients[Name])</f>
-        <v>16</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="E21" s="30">
-        <f>SUBTOTAL(101,Ingredients[Cost Grade])</f>
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="F21" s="31">
-        <f>SUBTOTAL(101,Ingredients[Cost])</f>
-        <v>126.5625</v>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4">
+        <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+        <v>545</v>
       </c>
       <c r="G21">
-        <f>SUBTOTAL(101,Ingredients[Uses])</f>
-        <v>2.75</v>
+        <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
+        <v>0</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>17</v>
@@ -7330,11 +7338,22 @@
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
+      <c r="B22" s="26">
+        <f>SUBTOTAL(103,Ingredients[Name])</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="E22" s="30">
+        <f>SUBTOTAL(101,Ingredients[Cost Grade])</f>
+        <v>0.31764705882352939</v>
+      </c>
+      <c r="F22" s="31">
+        <f>SUBTOTAL(101,Ingredients[Cost])</f>
+        <v>143.52941176470588</v>
+      </c>
+      <c r="G22">
+        <f>SUBTOTAL(101,Ingredients[Uses])</f>
+        <v>2.5882352941176472</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>17</v>
@@ -7424,6 +7443,12 @@
       </c>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
       <c r="T23" s="26">
         <f>SUBTOTAL(103,Recipes[Potion])</f>
         <v>18</v>
@@ -7453,27 +7478,18 @@
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
       <c r="T25" s="5"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28">
-        <f>ROWS(Ingredients[])</f>
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:42" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C29">
-        <f>COMBIN(ROWS(Ingredients[]), 2)</f>
-        <v>120</v>
+        <f>ROWS(Ingredients[])</f>
+        <v>17</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -7513,16 +7529,12 @@
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <f>COMBIN(ROWS(Ingredients[]), 3)</f>
-        <v>560</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+        <f>COMBIN(ROWS(Ingredients[]), 2)</f>
+        <v>136</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -7534,31 +7546,37 @@
       <c r="AI30" s="3"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <f>COMBIN(ROWS(Ingredients[]), 3)</f>
+        <v>680</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="3">
-        <f>SUM(C28:C30)</f>
-        <v>696</v>
+      <c r="C32" s="3">
+        <f>SUM(C29:C31)</f>
+        <v>833</v>
       </c>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33">
-        <f>COUNTIF(Recipes[Same As?], "Unique")</f>
-        <v>18</v>
-      </c>
       <c r="AP33" s="3"/>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="16">
-        <f>C33/C31</f>
-        <v>2.5862068965517241E-2</v>
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(Recipes[Same As?], "Unique")</f>
+        <v>18</v>
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -7582,91 +7600,58 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
     </row>
+    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="16">
+        <f>C34/C32</f>
+        <v>2.1608643457382955E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B5:D20">
+  <conditionalFormatting sqref="B5:D21">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>$D5=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="40">
+      <formula>$D5=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$D5=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$D5=2</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="39" priority="43">
       <formula>$D5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$D5=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$D5=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
-      <formula>$D5=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="40">
-      <formula>$D5=4</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E20">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6C1AAA3-E18E-435A-9D95-35F8312423EC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:G20 I5:I10 F5:F21">
-    <cfRule type="dataBar" priority="52">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{768DB3E6-322B-4675-A71C-0CC33BAE55BC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G20 I5:I10">
-    <cfRule type="dataBar" priority="50">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FBD79B31-C930-48AB-B939-9036E8D214D1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G20">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="G5:G21">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L16">
+    <cfRule type="expression" dxfId="37" priority="29">
+      <formula>$L5=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="30">
+      <formula>$L5=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="31">
+      <formula>$L5=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="32">
+      <formula>$L5=2</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="33" priority="33">
       <formula>$L5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$L5=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$L5=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>$L5=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$L5=5</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M16">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
     <cfRule type="dataBar" priority="44">
@@ -7697,7 +7682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O16">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>O5&gt;P5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7716,54 +7701,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T22">
+    <cfRule type="expression" dxfId="30" priority="13">
+      <formula>INDEX(PotionRarity, AC5)="Legendary"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="14">
+      <formula>INDEX(PotionRarity, AC5)="Epic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="15">
+      <formula>INDEX(PotionRarity, AC5)="Rare"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>INDEX(PotionRarity, AC5)="Uncommon"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="26" priority="17">
       <formula>INDEX(PotionRarity, AC5)="Common"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="16">
-      <formula>INDEX(PotionRarity, AC5)="Uncommon"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
-      <formula>INDEX(PotionRarity, AC5)="Rare"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="14">
-      <formula>INDEX(PotionRarity, AC5)="Epic"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="13">
-      <formula>INDEX(PotionRarity, AC5)="Legendary"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:X5">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:X22">
+    <cfRule type="expression" dxfId="24" priority="18">
+      <formula>INDEX(IngredientRarity,AD5)="Legendary"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="19">
+      <formula>INDEX(IngredientRarity,AD5)="Epic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>INDEX(IngredientRarity,AD5)="Rare"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>INDEX(IngredientRarity,AD5)="Uncommon"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="20" priority="22">
       <formula>INDEX(IngredientRarity,AD5)="Common"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>INDEX(IngredientRarity,AD5)="Uncommon"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>INDEX(IngredientRarity,AD5)="Rare"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>INDEX(IngredientRarity,AD5)="Legendary"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>INDEX(IngredientRarity,AD5)="Epic"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:W22">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>W5=V5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:X22">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(X5&lt;&gt;"", OR(X5=W5, X5=V5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y22">
-    <cfRule type="cellIs" dxfId="13" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="225" operator="lessThan">
       <formula>2</formula>
     </cfRule>
     <cfRule type="dataBar" priority="226">
@@ -7780,17 +7765,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z22">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"Excessive"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"Equal"</formula>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>"Under"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"Elevated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"Under"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"Equal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA22">
@@ -7822,18 +7807,60 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO22">
-    <cfRule type="expression" dxfId="8" priority="53">
+    <cfRule type="expression" dxfId="12" priority="53">
       <formula>$AN5&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="54" operator="equal">
       <formula>"Blank"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="55" operator="equal">
       <formula>"Unique"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E21">
+    <cfRule type="dataBar" priority="239">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6C1AAA3-E18E-435A-9D95-35F8312423EC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:G21 I5:I10 F5:F22">
+    <cfRule type="dataBar" priority="241">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{768DB3E6-322B-4675-A71C-0CC33BAE55BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G21 I5:I10">
+    <cfRule type="dataBar" priority="246">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FBD79B31-C930-48AB-B939-9036E8D214D1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C20 K5:K16" xr:uid="{9EEA8C00-4660-4074-A166-323023D3F1FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K16 C5:C21" xr:uid="{9EEA8C00-4660-4074-A166-323023D3F1FE}">
       <formula1>INDIRECT("Rarities[Name]")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:X22" xr:uid="{EEBB70AF-8542-4290-ACC3-4CDDF978BA3B}">
@@ -7855,41 +7882,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A6C1AAA3-E18E-435A-9D95-35F8312423EC}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E5:E20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{768DB3E6-322B-4675-A71C-0CC33BAE55BC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F5:G20 I5:I10 F5:F21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FBD79B31-C930-48AB-B939-9036E8D214D1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G5:G20 I5:I10</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -7956,6 +7948,41 @@
           </x14:cfRule>
           <xm:sqref>AB5:AB22</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6C1AAA3-E18E-435A-9D95-35F8312423EC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{768DB3E6-322B-4675-A71C-0CC33BAE55BC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F5:G21 I5:I10 F5:F22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FBD79B31-C930-48AB-B939-9036E8D214D1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G5:G21 I5:I10</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -8046,7 +8073,7 @@
       </c>
       <c r="I5" s="35">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.4375</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="J5" s="35">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
@@ -8080,7 +8107,7 @@
       </c>
       <c r="I6" s="36">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.1875</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="J6" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
@@ -8114,7 +8141,7 @@
       </c>
       <c r="I7" s="36">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.1875</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="J7" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
@@ -8148,7 +8175,7 @@
       </c>
       <c r="I8" s="36">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.125</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="J8" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
@@ -8174,7 +8201,7 @@
       </c>
       <c r="G9" s="11">
         <f>COUNTIF(Ingredients[Rarity], Rarities[[#This Row],[Name]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="11">
         <f>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</f>
@@ -8182,7 +8209,7 @@
       </c>
       <c r="I9" s="37">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>6.25E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="J9" s="37">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
@@ -8195,7 +8222,7 @@
       </c>
       <c r="G10">
         <f>SUBTOTAL(109,Rarities[Ingredients])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <f>SUBTOTAL(109,Rarities[Potions])</f>
@@ -8236,19 +8263,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Legendary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Epic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Rare"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Uncommon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8267,7 +8294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D9">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>D5&lt;C5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/Editor/PotionCrafting.xlsx
+++ b/Assets/Editor/PotionCrafting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomtare\Desktop\Exercise\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655A2D69-96C8-4F13-A260-38AD7636BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983BA997-E438-45E6-9597-990BADC6BF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BF5A99BE-0962-40A7-B624-F4241E3A742A}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
   <si>
     <t>Frog's Breath</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>Testo</t>
+  </si>
+  <si>
+    <t>Invuln</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -750,17 +753,36 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="129">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -773,6 +795,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -785,6 +808,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -797,46 +821,27 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -966,16 +971,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color theme="1" tint="0.499984740745262"/>
@@ -1015,6 +1010,88 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1028,38 +1105,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1072,6 +1124,117 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1105,6 +1268,188 @@
         <i val="0"/>
         <color theme="5"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1322,27 +1667,10 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1354,6 +1682,100 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1366,8 +1788,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1380,10 +1801,18 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1396,8 +1825,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1410,10 +1838,15 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1423,218 +1856,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1880,7 +2101,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -2099,7 +2320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2079A98-2E05-409D-954F-F5C75B2D7A27}" type="CELLRANGE">
+                    <a:fld id="{A5F3A33D-FE2A-4A6F-BEAB-167A1F59D1A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2132,7 +2353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F64EFA63-6EB9-423E-8FC7-3FDD7750520F}" type="CELLRANGE">
+                    <a:fld id="{DFAD22D8-B0C2-4CE6-A9F2-A008D03E1BB0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2253,7 +2474,7 @@
                     <c:v>41%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>33%</c:v>
+                    <c:v>31%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2295,7 +2516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FA64EBE-2F6E-4F76-BBBF-1CE14FA11C72}" type="CELLRANGE">
+                    <a:fld id="{87177A79-6197-48D3-8358-E4E42D209958}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2328,7 +2549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{999C4EE2-15ED-4197-BF7F-4FB53C8B1D2D}" type="CELLRANGE">
+                    <a:fld id="{1A70DB49-98DF-4E37-9F11-8DDE6ABD0464}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2449,7 +2670,7 @@
                     <c:v>18%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>33%</c:v>
+                    <c:v>31%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2491,7 +2712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D030787F-7BFB-460D-BB3F-9A238D554BA4}" type="CELLRANGE">
+                    <a:fld id="{C11D056A-8914-4FEA-ABD6-777BF6804578}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2524,7 +2745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA7F74C4-3FFD-4DD7-A3E6-87941BE45398}" type="CELLRANGE">
+                    <a:fld id="{E91702F0-F03D-40B0-8017-440E2FBBC834}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2659,7 +2880,7 @@
                     <c:v>18%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>25%</c:v>
+                    <c:v>23%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2701,7 +2922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B30F1B2-85B4-4CA8-A3A0-EBDFE032CF6C}" type="CELLRANGE">
+                    <a:fld id="{C91D639E-D403-4059-805C-EFAC8E3ADC27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2734,7 +2955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CAC71D0-16E5-4644-8657-41635F4348CB}" type="CELLRANGE">
+                    <a:fld id="{2FBFF5E4-FEB9-49F4-8A3B-CD5A9AF02499}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2897,7 +3118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A65D1FC0-4427-4082-B274-22292D0C040A}" type="CELLRANGE">
+                    <a:fld id="{077FAEEF-1C9A-4959-97C4-0B335D425434}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2930,7 +3151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48E2EAC3-BED5-486A-A576-2C6E5C4EBFC8}" type="CELLRANGE">
+                    <a:fld id="{34FF5753-290D-4182-A93B-1555DE1142DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3036,7 +3257,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,7 +3272,7 @@
                     <c:v>12%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0%</c:v>
+                    <c:v>8%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4451,22 +4672,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}" name="Ingredients" displayName="Ingredients" ref="B4:G22" totalsRowCount="1" headerRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}" name="Ingredients" displayName="Ingredients" ref="B4:G22" totalsRowCount="1" headerRowDxfId="128">
   <autoFilter ref="B4:G21" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G21">
     <sortCondition ref="F4:F21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D69EB11C-10F0-4524-8369-AD97563981B3}" name="Name" totalsRowFunction="count" dataDxfId="100" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F04C1EA5-949E-438D-84A4-56F605CD6069}" name="Rarity" dataDxfId="99" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{32B1FDAB-5698-4E97-B9E0-92BB3CB850BE}" name="Rarity Index" dataDxfId="98">
+    <tableColumn id="1" xr3:uid="{D69EB11C-10F0-4524-8369-AD97563981B3}" name="Name" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{F04C1EA5-949E-438D-84A4-56F605CD6069}" name="Rarity" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{32B1FDAB-5698-4E97-B9E0-92BB3CB850BE}" name="Rarity Index" dataDxfId="123">
       <calculatedColumnFormula>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F70F9771-BA82-48E7-A0B4-2E7FD8BD939A}" name="Cost Grade" totalsRowFunction="average" dataDxfId="97" totalsRowDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{F70F9771-BA82-48E7-A0B4-2E7FD8BD939A}" name="Cost Grade" totalsRowFunction="average" dataDxfId="122" totalsRowDxfId="121" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="120">
       <calculatedColumnFormula array="1">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="96">
+    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="119">
       <calculatedColumnFormula>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4475,30 +4696,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="J4:Q17" totalsRowCount="1" headerRowDxfId="95">
-  <autoFilter ref="J4:Q16" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="J4:Q18" totalsRowCount="1" headerRowDxfId="118">
+  <autoFilter ref="J4:Q17" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:Q16">
     <sortCondition ref="L4:L16"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="84" totalsRowDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="83">
       <calculatedColumnFormula>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="82">
       <calculatedColumnFormula>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="81">
       <calculatedColumnFormula>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="80">
       <calculatedColumnFormula>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="79" totalsRowDxfId="69">
       <calculatedColumnFormula array="1">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="84" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="68" dataCellStyle="Percent">
       <calculatedColumnFormula>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4507,67 +4728,67 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="T4:AO23" totalsRowCount="1" headerRowDxfId="83">
-  <autoFilter ref="T4:AO22" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="T4:AO24" totalsRowCount="1" headerRowDxfId="117">
+  <autoFilter ref="T4:AO23" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="115" totalsRowDxfId="6">
       <calculatedColumnFormula>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="114" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="113" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="112" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="111" totalsRowDxfId="2">
       <calculatedColumnFormula>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="70">
+    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="110">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="109" totalsRowDxfId="1">
       <calculatedColumnFormula>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="108" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="65">
+    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="107">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="64">
+    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="106">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="63">
+    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="105">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="62">
+    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="104">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="61">
+    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="103">
       <calculatedColumnFormula xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="60">
+    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="102">
       <calculatedColumnFormula array="1">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="59">
+    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="101">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="58">
+    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="100">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="57">
+    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="99">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="56">
+    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="98">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="55">
+    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="97">
       <calculatedColumnFormula>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="96">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="95">
       <calculatedColumnFormula array="1">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4576,7 +4797,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="94">
   <autoFilter ref="B4:J9" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4590,22 +4811,22 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A07BBC-E4A1-48D1-BD0B-E020F49EB5F9}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="91">
       <calculatedColumnFormula>Rarities[[#This Row],[Most Expensive]]-Rarities[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="89">
       <calculatedColumnFormula>COUNTIF(Ingredients[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="88">
       <calculatedColumnFormula>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="45" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="87" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="44" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="86" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4913,7 +5134,7 @@
   <dimension ref="B1:AP35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6791,22 +7012,35 @@
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J17" s="26">
-        <f>SUBTOTAL(103,Potions[Name])</f>
-        <v>12</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="M17">
-        <f>SUBTOTAL(101,Potions[Recipes])</f>
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="31">
-        <f>SUBTOTAL(101,Potions[Cost])</f>
-        <v>253.33333333333334</v>
-      </c>
-      <c r="Q17" s="27">
-        <f>SUBTOTAL(101,Potions[Max Profit])</f>
-        <v>0.35604548826163968</v>
+      <c r="J17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="39">
+        <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
+        <v>5</v>
+      </c>
+      <c r="M17" s="39">
+        <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="39">
+        <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
+        <v>960</v>
+      </c>
+      <c r="O17" s="39">
+        <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
+        <v>960</v>
+      </c>
+      <c r="P17" s="39" cm="1">
+        <f t="array" ref="P17">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+        <v>1345</v>
+      </c>
+      <c r="Q17" s="25">
+        <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
+        <v>0.40104166666666669</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>19</v>
@@ -6917,11 +7151,22 @@
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" t="s">
-        <v>91</v>
+      <c r="J18" s="26">
+        <f>SUBTOTAL(103,Potions[Name])</f>
+        <v>13</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="M18">
+        <f>SUBTOTAL(101,Potions[Recipes])</f>
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="P18" s="31">
+        <f>SUBTOTAL(101,Potions[Cost])</f>
+        <v>337.30769230769232</v>
+      </c>
+      <c r="Q18" s="27">
+        <f>SUBTOTAL(101,Potions[Max Profit])</f>
+        <v>0.35950673275433409</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>19</v>
@@ -7032,6 +7277,12 @@
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
+      <c r="J19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" t="s">
+        <v>91</v>
+      </c>
       <c r="T19" s="4" t="s">
         <v>63</v>
       </c>
@@ -7126,7 +7377,7 @@
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>5</v>
       </c>
@@ -7137,9 +7388,9 @@
         <f t="array" ref="F20">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>415</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>31</v>
@@ -7248,7 +7499,7 @@
       </c>
       <c r="G21">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>17</v>
@@ -7353,7 +7604,7 @@
       </c>
       <c r="G22">
         <f>SUBTOTAL(101,Ingredients[Uses])</f>
-        <v>2.5882352941176472</v>
+        <v>2.7058823529411766</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>17</v>
@@ -7449,34 +7700,120 @@
       <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="T23" s="26">
-        <f>SUBTOTAL(103,Recipes[Potion])</f>
-        <v>18</v>
-      </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="32">
-        <f>SUBTOTAL(101,Recipes[Ingredient Count])</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="AA23" s="31">
-        <f>SUBTOTAL(101,Recipes[Total Cost])</f>
-        <v>205.27777777777777</v>
-      </c>
-      <c r="AB23" s="27">
-        <f>SUBTOTAL(101,Recipes[Profit Margin])</f>
-        <v>0.30070463167818989</v>
+      <c r="T23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U23" s="40">
+        <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="41">
+        <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
+        <v>2</v>
+      </c>
+      <c r="Z23" s="39" t="str">
+        <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
+        <v>Equal</v>
+      </c>
+      <c r="AA23" s="39">
+        <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
+        <v>960</v>
+      </c>
+      <c r="AB23" s="42" cm="1">
+        <f t="array" ref="AB23">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+        <v>0.40104166666666669</v>
+      </c>
+      <c r="AC23" s="39">
+        <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
+        <v>13</v>
+      </c>
+      <c r="AD23" s="39">
+        <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
+        <v>17</v>
+      </c>
+      <c r="AE23" s="39">
+        <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
+        <v>16</v>
+      </c>
+      <c r="AF23" s="39" t="e">
+        <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" s="39">
+        <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
+        <v>5</v>
+      </c>
+      <c r="AH23" s="39" cm="1">
+        <f t="array" ref="AH23">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+        <v>5</v>
+      </c>
+      <c r="AI23" s="39">
+        <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="39">
+        <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
+        <v>2</v>
+      </c>
+      <c r="AK23" s="39">
+        <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="39" t="str">
+        <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
+        <v>Dragon's Egg + Testo</v>
+      </c>
+      <c r="AM23" s="39">
+        <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
+        <v>19</v>
+      </c>
+      <c r="AN23" s="39">
+        <f>IF(Recipes[[#This Row],[Combined]]="", -1,
+IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
+IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="39" t="str" cm="1">
+        <f t="array" ref="AO23">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+        <v>Unique</v>
       </c>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="T24" s="5" t="s">
-        <v>93</v>
+      <c r="T24" s="26">
+        <f>SUBTOTAL(103,Recipes[Potion])</f>
+        <v>19</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="32">
+        <f>SUBTOTAL(101,Recipes[Ingredient Count])</f>
+        <v>2.4210526315789473</v>
+      </c>
+      <c r="AA24" s="31">
+        <f>SUBTOTAL(101,Recipes[Total Cost])</f>
+        <v>245</v>
+      </c>
+      <c r="AB24" s="27">
+        <f>SUBTOTAL(101,Recipes[Profit Margin])</f>
+        <v>0.3059855282565308</v>
       </c>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="T25" s="5"/>
+      <c r="T25" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="T26" s="5"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -7535,15 +7872,6 @@
         <f>COMBIN(ROWS(Ingredients[]), 2)</f>
         <v>136</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="AI30" s="3"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
@@ -7557,6 +7885,15 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="AI31" s="3"/>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -7576,29 +7913,8 @@
       </c>
       <c r="C34">
         <f>COUNTIF(Recipes[Same As?], "Unique")</f>
-        <v>18</v>
-      </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -7606,215 +7922,47 @@
       </c>
       <c r="C35" s="16">
         <f>C34/C32</f>
-        <v>2.1608643457382955E-2</v>
-      </c>
+        <v>2.2809123649459785E-2</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B5:D21">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="67" priority="39">
       <formula>$D5=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="66" priority="40">
       <formula>$D5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="65" priority="41">
       <formula>$D5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="64" priority="42">
       <formula>$D5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="43">
+    <cfRule type="expression" dxfId="63" priority="43">
       <formula>$D5=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G21">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:L16">
-    <cfRule type="expression" dxfId="37" priority="29">
-      <formula>$L5=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
-      <formula>$L5=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="31">
-      <formula>$L5=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
-      <formula>$L5=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$L5=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M16">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:P16">
-    <cfRule type="dataBar" priority="57">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C9FB3D57-A4BA-4975-A360-A529823EE890}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O16">
-    <cfRule type="expression" dxfId="31" priority="8">
-      <formula>O5&gt;P5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q16">
-    <cfRule type="dataBar" priority="49">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9335A7AD-9DE9-4B27-A099-67B85F280E7B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T22">
-    <cfRule type="expression" dxfId="30" priority="13">
-      <formula>INDEX(PotionRarity, AC5)="Legendary"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="14">
-      <formula>INDEX(PotionRarity, AC5)="Epic"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="15">
-      <formula>INDEX(PotionRarity, AC5)="Rare"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="16">
-      <formula>INDEX(PotionRarity, AC5)="Uncommon"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="17">
-      <formula>INDEX(PotionRarity, AC5)="Common"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:X5">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:X22">
-    <cfRule type="expression" dxfId="24" priority="18">
-      <formula>INDEX(IngredientRarity,AD5)="Legendary"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="19">
-      <formula>INDEX(IngredientRarity,AD5)="Epic"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
-      <formula>INDEX(IngredientRarity,AD5)="Rare"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>INDEX(IngredientRarity,AD5)="Uncommon"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>INDEX(IngredientRarity,AD5)="Common"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W22">
-    <cfRule type="expression" dxfId="19" priority="5">
-      <formula>W5=V5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:X22">
-    <cfRule type="expression" dxfId="18" priority="4">
-      <formula>AND(X5&lt;&gt;"", OR(X5=W5, X5=V5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:Y22">
-    <cfRule type="cellIs" dxfId="17" priority="225" operator="lessThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="226">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{265428C5-BF75-4A21-92CC-EE4C315D5DC5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z22">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"Excessive"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
-      <formula>"Under"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>"Elevated"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>"Equal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA22">
-    <cfRule type="dataBar" priority="227">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42FD5F13-D6DB-4218-B008-1A4C87F76A54}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB22">
-    <cfRule type="dataBar" priority="228">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO22">
-    <cfRule type="expression" dxfId="12" priority="53">
-      <formula>$AN5&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="54" operator="equal">
-      <formula>"Blank"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="55" operator="equal">
-      <formula>"Unique"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -7859,14 +8007,203 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G21">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:L17">
+    <cfRule type="expression" dxfId="61" priority="29">
+      <formula>$L5=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="30">
+      <formula>$L5=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="31">
+      <formula>$L5=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="32">
+      <formula>$L5=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="33">
+      <formula>$L5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M17">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:P17">
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9FB3D57-A4BA-4975-A360-A529823EE890}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O17">
+    <cfRule type="expression" dxfId="55" priority="8">
+      <formula>O5&gt;P5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q17">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9335A7AD-9DE9-4B27-A099-67B85F280E7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T23">
+    <cfRule type="expression" dxfId="54" priority="13">
+      <formula>INDEX(PotionRarity, AC5)="Legendary"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="14">
+      <formula>INDEX(PotionRarity, AC5)="Epic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="15">
+      <formula>INDEX(PotionRarity, AC5)="Rare"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="16">
+      <formula>INDEX(PotionRarity, AC5)="Uncommon"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="17">
+      <formula>INDEX(PotionRarity, AC5)="Common"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:X5">
+    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:X23">
+    <cfRule type="expression" dxfId="48" priority="18">
+      <formula>INDEX(IngredientRarity,AD5)="Legendary"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="19">
+      <formula>INDEX(IngredientRarity,AD5)="Epic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="20">
+      <formula>INDEX(IngredientRarity,AD5)="Rare"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="21">
+      <formula>INDEX(IngredientRarity,AD5)="Uncommon"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="22">
+      <formula>INDEX(IngredientRarity,AD5)="Common"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5:W23">
+    <cfRule type="expression" dxfId="43" priority="5">
+      <formula>W5=V5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:X23">
+    <cfRule type="expression" dxfId="42" priority="4">
+      <formula>AND(X5&lt;&gt;"", OR(X5=W5, X5=V5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:Y23">
+    <cfRule type="cellIs" dxfId="41" priority="225" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="226">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{265428C5-BF75-4A21-92CC-EE4C315D5DC5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z23">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+      <formula>"Excessive"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+      <formula>"Under"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+      <formula>"Elevated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+      <formula>"Equal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA23">
+    <cfRule type="dataBar" priority="227">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42FD5F13-D6DB-4218-B008-1A4C87F76A54}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AB23">
+    <cfRule type="dataBar" priority="228">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO23">
+    <cfRule type="expression" dxfId="36" priority="53">
+      <formula>$AN5&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="54" operator="equal">
+      <formula>"Blank"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
+      <formula>"Unique"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K16 C5:C21" xr:uid="{9EEA8C00-4660-4074-A166-323023D3F1FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K17 C5:C21" xr:uid="{9EEA8C00-4660-4074-A166-323023D3F1FE}">
       <formula1>INDIRECT("Rarities[Name]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:X22" xr:uid="{EEBB70AF-8542-4290-ACC3-4CDDF978BA3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:X23" xr:uid="{EEBB70AF-8542-4290-ACC3-4CDDF978BA3B}">
       <formula1>INDIRECT("Ingredients[Name]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T22" xr:uid="{41660AF6-554C-4002-AF79-2AE11B650C78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T23" xr:uid="{41660AF6-554C-4002-AF79-2AE11B650C78}">
       <formula1>INDIRECT("Potions[Name]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -7882,72 +8219,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M5:M16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C9FB3D57-A4BA-4975-A360-A529823EE890}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N5:P16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9335A7AD-9DE9-4B27-A099-67B85F280E7B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q5:Q16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{265428C5-BF75-4A21-92CC-EE4C315D5DC5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Y5:Y22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42FD5F13-D6DB-4218-B008-1A4C87F76A54}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AA5:AA22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AB5:AB22</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6C1AAA3-E18E-435A-9D95-35F8312423EC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -7983,6 +8254,72 @@
           </x14:cfRule>
           <xm:sqref>G5:G21 I5:I10</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M5:M17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9FB3D57-A4BA-4975-A360-A529823EE890}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N5:P17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9335A7AD-9DE9-4B27-A099-67B85F280E7B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q5:Q17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{265428C5-BF75-4A21-92CC-EE4C315D5DC5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y5:Y23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42FD5F13-D6DB-4218-B008-1A4C87F76A54}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AA5:AA23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AB5:AB23</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -8077,7 +8414,7 @@
       </c>
       <c r="J5" s="35">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>0.33333333333333331</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -8111,7 +8448,7 @@
       </c>
       <c r="J6" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>0.33333333333333331</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -8145,7 +8482,7 @@
       </c>
       <c r="J7" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -8179,7 +8516,7 @@
       </c>
       <c r="J8" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -8205,7 +8542,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="37">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
@@ -8213,7 +8550,7 @@
       </c>
       <c r="J9" s="37">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -8226,7 +8563,7 @@
       </c>
       <c r="H10">
         <f>SUBTOTAL(109,Rarities[Potions])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -8249,7 +8586,7 @@
       </c>
       <c r="C17" s="38">
         <f>COUNTIF(Recipes[Ingredient Count], 2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -8263,19 +8600,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"Legendary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"Epic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"Rare"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"Uncommon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8294,7 +8631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D9">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>D5&lt;C5</formula>
     </cfRule>
   </conditionalFormatting>
